--- a/website/uniapp.xlsx
+++ b/website/uniapp.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="安装" sheetId="1" r:id="rId1"/>
     <sheet name="标签" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ui组件" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>HBuilderX下载插件</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>&lt;image src="/static/logo.png"&gt;&lt;/image&gt;</t>
+  </si>
+  <si>
+    <t>vant-weapp</t>
+  </si>
+  <si>
+    <t>https://youzan.github.io/vant-weapp/#/intro</t>
+  </si>
+  <si>
+    <t>https://vant-contrib.gitee.io/</t>
+  </si>
+  <si>
+    <t>uView</t>
+  </si>
+  <si>
+    <t>https://uviewui.com</t>
   </si>
 </sst>
 </file>
@@ -59,12 +74,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,15 +88,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,98 +172,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,25 +225,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +439,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -453,10 +476,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -472,30 +493,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -506,6 +503,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,153 +537,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,8 +1042,8 @@
   <sheetPr/>
   <dimension ref="A2:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1083,7 +1097,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1120,14 +1134,53 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="30.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="60.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://youzan.github.io/vant-weapp/#/intro"/>
+    <hyperlink ref="B5" r:id="rId2" display="https://uviewui.com"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://vant-contrib.gitee.io/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
